--- a/biology/Botanique/Pagamea/Pagamea.xlsx
+++ b/biology/Botanique/Pagamea/Pagamea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pagamea est un genre néotropical d'arbre, appartenant à la famille des Rubiaceae, comportant environ 32 espèces, et dont l'espèce type est Pagamea guianensis Aubl..
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Pagamea regroupe des arbres ou des arbustes, non armés, terrestres, à feuilles opposées, pétiolées, membraneuses à coriaces, glabres à densément pubescentes, avec une nervation non linéolée.
 Les stipules sont fusionnées en une gaine cylindrique avec 4-8 soies à l'apex, généralement seules les gaines terminales supérieures sont présentes, les gaines inférieures sont caduques.
@@ -527,7 +541,7 @@
 Les ovules sont solitaires dans chaque loge, ascendants, basaux ou axiles près de la base.
 Le fruit est une drupe charnue, globuleuse à ellipsoïde, mesurant 3,5-13 mm de long, noir brillant ou noir pourpre à maturité, partiellement inséré dans un calice en forme de coupe ou complètement extèrse dans un calice peu profond en forme de plaque, ce calice de fructification étant rouge (orange) à maturité.
 Les 2 pyrènes sont durs, obovales à obdeltoïdes, avec une graine chacun.
-Pagamea se reconnaît à ses stipules caractéristiques, qui sont tubulaires et sétosées. Les ovaires et les fruits sont secondairement supère, c'est-à-dire que cette condition représente un renversement évolutif par rapport à l'ovaire infère des Rubiaceae. Ces structures rendent souvent difficile la reconnaissance des espèces de Pagamea en tant que Rubiaceae[2].
+Pagamea se reconnaît à ses stipules caractéristiques, qui sont tubulaires et sétosées. Les ovaires et les fruits sont secondairement supère, c'est-à-dire que cette condition représente un renversement évolutif par rapport à l'ovaire infère des Rubiaceae. Ces structures rendent souvent difficile la reconnaissance des espèces de Pagamea en tant que Rubiaceae.
 </t>
         </is>
       </c>
@@ -556,9 +570,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre le genre Pagamea en Amérique du Sud tropicale humide, de la Colombie, au Brésil en passant par le Venezuela, la Guyane, le Guyana, le Suriname, le Pérou, et la Bolivie[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre le genre Pagamea en Amérique du Sud tropicale humide, de la Colombie, au Brésil en passant par le Venezuela, la Guyane, le Guyana, le Suriname, le Pérou, et la Bolivie.
 </t>
         </is>
       </c>
@@ -587,9 +603,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[3] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « PAGAMEA. (Tabula 44.)
 CAL. Perianthium monophyllum, turbinatum, quadridentatum.
 COR. monopetala, alba; tubus brevis, diſco ſuprà germen inſertus; limbus quadrifidus ; lobis ſubrotundis, villoſis,
@@ -625,9 +643,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (23 avril 2024)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (23 avril 2024) :
 Pagamea acrensis Steyerm.
 Pagamea anisophylla Standl. &amp; Steyerm.
 Pagamea aracaensis B.M.Boom
